--- a/05/算法比较.xlsx
+++ b/05/算法比较.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\学习\大二下\最优化\homework\Mathematical-Optimization\05\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F93B415-BCAD-465E-BFA4-7280950CC3BB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1E47E0C-1303-4625-B8E9-8F9B288DC646}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="55">
   <si>
     <t>算法名称</t>
   </si>
@@ -33,9 +33,6 @@
     <t>迭代次数</t>
   </si>
   <si>
-    <t>计算量（运行时间）</t>
-  </si>
-  <si>
     <t>最优解</t>
   </si>
   <si>
@@ -46,9 +43,6 @@
   </si>
   <si>
     <t>最速下降法</t>
-  </si>
-  <si>
-    <t>0.14317s</t>
   </si>
   <si>
     <t>[0.192922036755770,</t>
@@ -194,6 +188,10 @@
   </si>
   <si>
     <t>2018302120169傅宇千</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算量(运行时间-秒)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -310,22 +308,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -334,11 +332,11 @@
     <xf numFmtId="11" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -623,535 +621,567 @@
   <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.875" customWidth="1"/>
-    <col min="3" max="3" width="15.375" customWidth="1"/>
+    <col min="1" max="1" width="11.25" customWidth="1"/>
+    <col min="2" max="2" width="8.5" customWidth="1"/>
+    <col min="3" max="3" width="17.75" customWidth="1"/>
     <col min="4" max="4" width="21.25" customWidth="1"/>
     <col min="5" max="5" width="8.25" customWidth="1"/>
     <col min="6" max="6" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+    </row>
+    <row r="2" spans="1:6" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+    </row>
+    <row r="3" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-    </row>
-    <row r="2" spans="1:6" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-    </row>
-    <row r="3" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="5" t="s">
+    </row>
+    <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="B4" s="8">
+        <v>2319</v>
+      </c>
+      <c r="C4" s="8">
+        <v>0.14316999999999999</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" s="7">
-        <v>2319</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>8</v>
       </c>
       <c r="E4" s="9">
         <v>3.0752185414225898E-4</v>
       </c>
-      <c r="F4" s="7"/>
+      <c r="F4" s="8"/>
     </row>
     <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="8" t="s">
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="9"/>
+      <c r="F5" s="8"/>
+    </row>
+    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="9"/>
+      <c r="F6" s="8"/>
+    </row>
+    <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="7"/>
-    </row>
-    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="8" t="s">
+      <c r="E7" s="9"/>
+      <c r="F7" s="8"/>
+    </row>
+    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="7"/>
-    </row>
-    <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="8" t="s">
+      <c r="B8" s="3">
+        <v>10000</v>
+      </c>
+      <c r="C8" s="3">
+        <v>6.5495999999999999</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="7"/>
-    </row>
-    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="E8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="8">
-        <v>10000</v>
-      </c>
-      <c r="C8" s="8">
-        <v>6.5495999999999999</v>
-      </c>
-      <c r="D8" s="8" t="s">
+      <c r="F8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="8" t="s">
+    </row>
+    <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="B9" s="8">
+        <v>11</v>
+      </c>
+      <c r="C9" s="8">
+        <v>5.1520000000000003E-3</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="7">
-        <v>11</v>
-      </c>
-      <c r="C9" s="7">
-        <v>5.1520000000000003E-3</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>17</v>
       </c>
       <c r="E9" s="9">
         <v>3.07505689977272E-4</v>
       </c>
-      <c r="F9" s="7"/>
+      <c r="F9" s="8"/>
     </row>
     <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="8" t="s">
+      <c r="A10" s="7"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="9"/>
+      <c r="F10" s="8"/>
+    </row>
+    <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="9"/>
+      <c r="F11" s="8"/>
+    </row>
+    <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="7"/>
-    </row>
-    <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="8" t="s">
+      <c r="E12" s="9"/>
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="7"/>
-    </row>
-    <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="8" t="s">
+      <c r="B13" s="8">
+        <v>861</v>
+      </c>
+      <c r="C13" s="8">
+        <v>7.3071999999999998E-2</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="7"/>
-    </row>
-    <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="7">
-        <v>861</v>
-      </c>
-      <c r="C13" s="7">
-        <v>7.3071999999999998E-2</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>22</v>
       </c>
       <c r="E13" s="9">
         <v>3.0879438091972403E-4</v>
       </c>
-      <c r="F13" s="7"/>
+      <c r="F13" s="8"/>
     </row>
     <row r="14" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="8" t="s">
+      <c r="A14" s="7"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="9"/>
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="9"/>
+      <c r="F15" s="8"/>
+    </row>
+    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="9"/>
-      <c r="F14" s="7"/>
-    </row>
-    <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="8" t="s">
+      <c r="E16" s="9"/>
+      <c r="F16" s="8"/>
+    </row>
+    <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="9"/>
-      <c r="F15" s="7"/>
-    </row>
-    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="8" t="s">
+      <c r="B17" s="8">
+        <v>57</v>
+      </c>
+      <c r="C17" s="8">
+        <v>1.0463999999999999E-2</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="E16" s="9"/>
-      <c r="F16" s="7"/>
-    </row>
-    <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="7">
-        <v>57</v>
-      </c>
-      <c r="C17" s="7">
-        <v>1.0463999999999999E-2</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>27</v>
       </c>
       <c r="E17" s="9">
         <v>3.0781370922857901E-4</v>
       </c>
-      <c r="F17" s="7"/>
+      <c r="F17" s="8"/>
     </row>
     <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="8" t="s">
+      <c r="A18" s="7"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="9"/>
+      <c r="F18" s="8"/>
+    </row>
+    <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="9"/>
+      <c r="F19" s="8"/>
+    </row>
+    <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="7"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="9"/>
-      <c r="F18" s="7"/>
-    </row>
-    <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="8" t="s">
+      <c r="E20" s="9"/>
+      <c r="F20" s="8"/>
+    </row>
+    <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E19" s="9"/>
-      <c r="F19" s="7"/>
-    </row>
-    <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E20" s="9"/>
-      <c r="F20" s="7"/>
-    </row>
-    <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" s="7">
+      <c r="B21" s="8">
         <v>861</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="8">
         <v>7.6793E-2</v>
       </c>
-      <c r="D21" s="8" t="s">
-        <v>22</v>
+      <c r="D21" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="E21" s="9">
         <v>3.0879438091972403E-4</v>
       </c>
-      <c r="F21" s="7"/>
+      <c r="F21" s="8"/>
     </row>
     <row r="22" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="8" t="s">
+      <c r="A22" s="7"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" s="9"/>
+      <c r="F22" s="8"/>
+    </row>
+    <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="7"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="9"/>
+      <c r="F23" s="8"/>
+    </row>
+    <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="7"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E22" s="9"/>
-      <c r="F22" s="7"/>
-    </row>
-    <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E23" s="9"/>
-      <c r="F23" s="7"/>
-    </row>
-    <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="8" t="s">
-        <v>25</v>
-      </c>
       <c r="E24" s="9"/>
-      <c r="F24" s="7"/>
+      <c r="F24" s="8"/>
     </row>
     <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B25" s="7">
+      <c r="A25" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="8">
         <v>72</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="8">
         <v>1.1756000000000001E-2</v>
       </c>
-      <c r="D25" s="8" t="s">
-        <v>33</v>
+      <c r="D25" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="E25" s="9">
         <v>3.0851944809020198E-4</v>
       </c>
-      <c r="F25" s="7"/>
+      <c r="F25" s="8"/>
     </row>
     <row r="26" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="8" t="s">
+      <c r="A26" s="7"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" s="9"/>
+      <c r="F26" s="8"/>
+    </row>
+    <row r="27" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="7"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E27" s="9"/>
+      <c r="F27" s="8"/>
+    </row>
+    <row r="28" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="7"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E26" s="9"/>
-      <c r="F26" s="7"/>
-    </row>
-    <row r="27" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="8" t="s">
+      <c r="E28" s="9"/>
+      <c r="F28" s="8"/>
+    </row>
+    <row r="29" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E27" s="9"/>
-      <c r="F27" s="7"/>
-    </row>
-    <row r="28" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="8" t="s">
+      <c r="B29" s="8">
+        <v>10000</v>
+      </c>
+      <c r="C29" s="8">
+        <v>0.45968799999999999</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="E28" s="9"/>
-      <c r="F28" s="7"/>
-    </row>
-    <row r="29" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B29" s="7">
-        <v>10000</v>
-      </c>
-      <c r="C29" s="7">
-        <v>0.45968799999999999</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>38</v>
       </c>
       <c r="E29" s="9">
         <v>4.1667532774940301E-4</v>
       </c>
-      <c r="F29" s="7"/>
+      <c r="F29" s="8"/>
     </row>
     <row r="30" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="8" t="s">
+      <c r="A30" s="7"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E30" s="9"/>
+      <c r="F30" s="8"/>
+    </row>
+    <row r="31" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="7"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E31" s="9"/>
+      <c r="F31" s="8"/>
+    </row>
+    <row r="32" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="7"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E30" s="9"/>
-      <c r="F30" s="7"/>
-    </row>
-    <row r="31" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="6"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="8" t="s">
+      <c r="E32" s="9"/>
+      <c r="F32" s="8"/>
+    </row>
+    <row r="33" spans="1:6" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E31" s="9"/>
-      <c r="F31" s="7"/>
-    </row>
-    <row r="32" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="6"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="8" t="s">
+      <c r="B33" s="3">
+        <v>10000</v>
+      </c>
+      <c r="C33" s="3">
+        <v>3.7513160000000001</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E32" s="9"/>
-      <c r="F32" s="7"/>
-    </row>
-    <row r="33" spans="1:6" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="10" t="s">
+    </row>
+    <row r="34" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B33" s="8">
-        <v>10000</v>
-      </c>
-      <c r="C33" s="8">
-        <v>3.7513160000000001</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F33" s="8" t="s">
+      <c r="B34" s="8">
+        <v>500</v>
+      </c>
+      <c r="C34" s="8">
+        <v>3.8127719999999998</v>
+      </c>
+      <c r="D34" s="3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
+      <c r="E34" s="8">
+        <v>0.11244844597664599</v>
+      </c>
+      <c r="F34" s="8"/>
+    </row>
+    <row r="35" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="7"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B34" s="7">
-        <v>500</v>
-      </c>
-      <c r="C34" s="7">
-        <v>3.8127719999999998</v>
-      </c>
-      <c r="D34" s="8" t="s">
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+    </row>
+    <row r="36" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="7"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E34" s="7">
-        <v>0.11244844597664599</v>
-      </c>
-      <c r="F34" s="7"/>
-    </row>
-    <row r="35" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="6"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="8" t="s">
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+    </row>
+    <row r="37" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="7"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-    </row>
-    <row r="36" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="6"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="8" t="s">
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+    </row>
+    <row r="38" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-    </row>
-    <row r="37" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="6"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="8" t="s">
+      <c r="B38" s="8">
+        <v>299</v>
+      </c>
+      <c r="C38" s="8">
+        <v>3.0984000000000001E-2</v>
+      </c>
+      <c r="D38" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-    </row>
-    <row r="38" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B38" s="7">
-        <v>299</v>
-      </c>
-      <c r="C38" s="7">
-        <v>3.0984000000000001E-2</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>50</v>
       </c>
       <c r="E38" s="9">
         <v>3.2228840915587001E-7</v>
       </c>
-      <c r="F38" s="7"/>
+      <c r="F38" s="8"/>
     </row>
     <row r="39" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="6"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="8" t="s">
+      <c r="A39" s="7"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E39" s="9"/>
+      <c r="F39" s="8"/>
+    </row>
+    <row r="40" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="7"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E40" s="9"/>
+      <c r="F40" s="8"/>
+    </row>
+    <row r="41" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="7"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E39" s="9"/>
-      <c r="F39" s="7"/>
-    </row>
-    <row r="40" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="6"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E40" s="9"/>
-      <c r="F40" s="7"/>
-    </row>
-    <row r="41" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="6"/>
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="8" t="s">
-        <v>53</v>
-      </c>
       <c r="E41" s="9"/>
-      <c r="F41" s="7"/>
+      <c r="F41" s="8"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="47">
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="C9:C12"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="F9:F12"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="E4:E7"/>
+    <mergeCell ref="F4:F7"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="C17:C20"/>
+    <mergeCell ref="E17:E20"/>
+    <mergeCell ref="F17:F20"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="E13:E16"/>
+    <mergeCell ref="F13:F16"/>
+    <mergeCell ref="F34:F37"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="E21:E24"/>
+    <mergeCell ref="F21:F24"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="C25:C28"/>
+    <mergeCell ref="E25:E28"/>
+    <mergeCell ref="F25:F28"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A38:A41"/>
     <mergeCell ref="B38:B41"/>
@@ -1168,37 +1198,6 @@
     <mergeCell ref="B34:B37"/>
     <mergeCell ref="C34:C37"/>
     <mergeCell ref="E34:E37"/>
-    <mergeCell ref="F34:F37"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="C21:C24"/>
-    <mergeCell ref="E21:E24"/>
-    <mergeCell ref="F21:F24"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="C25:C28"/>
-    <mergeCell ref="E25:E28"/>
-    <mergeCell ref="F25:F28"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="C13:C16"/>
-    <mergeCell ref="E13:E16"/>
-    <mergeCell ref="F13:F16"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="C17:C20"/>
-    <mergeCell ref="E17:E20"/>
-    <mergeCell ref="F17:F20"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="C4:C7"/>
-    <mergeCell ref="E4:E7"/>
-    <mergeCell ref="F4:F7"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="C9:C12"/>
-    <mergeCell ref="E9:E12"/>
-    <mergeCell ref="F9:F12"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
